--- a/dataset/入境学生统计.xlsx
+++ b/dataset/入境学生统计.xlsx
@@ -14,9 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>2013_sum</t>
+  </si>
+  <si>
+    <t>2014_sum</t>
+  </si>
+  <si>
+    <t>2015_sum</t>
+  </si>
+  <si>
+    <t>2016_sum</t>
+  </si>
+  <si>
+    <t>2017_sum</t>
+  </si>
+  <si>
+    <t>2018_sum</t>
+  </si>
+  <si>
+    <t>2019_sum</t>
+  </si>
+  <si>
+    <t>2020_sum</t>
   </si>
   <si>
     <t>United States</t>
@@ -44,8 +68,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,7 +81,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,135 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -209,162 +233,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,24 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +424,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,6 +468,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -429,11 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,45 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,148 +544,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -985,11 +1015,12 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="11.8888888888889"/>
     <col min="5" max="5" width="11.8888888888889"/>
     <col min="7" max="7" width="11.8888888888889"/>
@@ -1004,263 +1035,308 @@
     <col min="17" max="17" width="10.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>2013</v>
       </c>
-      <c r="D1">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
         <v>2014</v>
       </c>
-      <c r="F1">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
         <v>2015</v>
       </c>
-      <c r="H1">
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
         <v>2016</v>
       </c>
-      <c r="J1">
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2">
         <v>2017</v>
       </c>
-      <c r="L1">
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2">
         <v>2018</v>
       </c>
-      <c r="N1">
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2">
         <v>2019</v>
       </c>
-      <c r="P1">
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2">
         <v>2020</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
         <v>819644</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>21253000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>886052</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>20642819</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>974926</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>20255000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>1043839</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>20264000</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>1078822</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>20185000</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>1094792</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>19831000</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>1095299</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>19828000</v>
       </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" s="1" customFormat="1" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
         <v>488380</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>2573630</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>481050</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>2421535</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>493570</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>2299355</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>496690</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>2351375</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>501045</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>2369695</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>506480</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>2407780</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <v>496570</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="5">
         <v>2380045</v>
       </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
         <v>245531</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>1177292</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>247093</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>1228991</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>269752</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>1287357</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>292352</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>1410133</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>327606</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>1376990</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>371885</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>1163306</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <v>420501</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="5">
         <v>1503034</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="5">
         <v>463643</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="5">
         <v>1482379</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
         <v>237635</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>1996200</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>268659</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>2023191</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>263855</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>2048019</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>309530</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>2054943</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>370710</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>2030000</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="5">
         <v>435415</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="5">
         <v>2051865</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="5">
         <v>503270</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="5">
         <v>2120000</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" s="1" customFormat="1" spans="1:17">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
         <v>40270</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
         <v>42351</v>
       </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3">
+    <row r="7" s="1" customFormat="1" spans="1:17">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5">
         <v>45424</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>34584781</v>
       </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
